--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W15_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5420560747663551</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2307692307692308</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9456521739130435</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5299401197604791</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6891089108910891</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5149700598802395</v>
+        <v>0.4880239520958084</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08217631372024573</v>
+        <v>0.06491599029412981</v>
       </c>
       <c r="J2" t="n">
-        <v>1099.617848817853</v>
+        <v>832.8399780770638</v>
       </c>
       <c r="K2" t="n">
-        <v>1811507.134045267</v>
+        <v>951580.4872227859</v>
       </c>
       <c r="L2" t="n">
-        <v>1345.922410113327</v>
+        <v>975.4898703845089</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6640793187255591</v>
+        <v>0.8235416468708454</v>
       </c>
     </row>
   </sheetData>
